--- a/ChartsWithImpact/Q8.xlsx
+++ b/ChartsWithImpact/Q8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Fry\Dropbox\ASW Files\Data Visualization\_Current Files\Ch 3 Design - Fry\DATA_CHARTFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18C3DE-B073-4342-9CA9-02CAC59BFCB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,24 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Month</t>
+    <t>Enrollment</t>
   </si>
   <si>
-    <t>Shipping Costs (in $1000s)</t>
-  </si>
-  <si>
-    <t>Outbound</t>
-  </si>
-  <si>
-    <t>Inbound</t>
+    <t>Semester (Fall)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -73,27 +68,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,173 +357,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1966</v>
+      </c>
+      <c r="B2">
+        <v>26850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>1971</v>
       </c>
       <c r="B3">
-        <v>478</v>
-      </c>
-      <c r="C3">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1976</v>
       </c>
       <c r="B4">
-        <v>524</v>
-      </c>
-      <c r="C4">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1981</v>
       </c>
       <c r="B5">
-        <v>628</v>
-      </c>
-      <c r="C5">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>1986</v>
       </c>
       <c r="B6">
-        <v>787</v>
-      </c>
-      <c r="C6">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>1991</v>
       </c>
       <c r="B7">
-        <v>648</v>
-      </c>
-      <c r="C7">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>1996</v>
       </c>
       <c r="B8">
-        <v>612</v>
-      </c>
-      <c r="C8">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>2001</v>
       </c>
       <c r="B9">
-        <v>598</v>
-      </c>
-      <c r="C9">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>2006</v>
       </c>
       <c r="B10">
-        <v>641</v>
-      </c>
-      <c r="C10">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>2011</v>
       </c>
       <c r="B11">
-        <v>546</v>
-      </c>
-      <c r="C11">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>2016</v>
       </c>
       <c r="B12">
-        <v>476</v>
-      </c>
-      <c r="C12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>378</v>
-      </c>
-      <c r="C13">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>512</v>
-      </c>
-      <c r="C14">
-        <v>298</v>
+        <v>44718</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>